--- a/public/table/grouping.xlsx
+++ b/public/table/grouping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huweicong/Sites/localhost/webstorm/voltage/public/table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huweicong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421707DC-6099-8C4E-9C5F-C6796353976D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE553B7-5EFD-374B-9502-6BCA30EB884D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="2160" windowWidth="28240" windowHeight="17440" xr2:uid="{0740555D-F952-C44A-95EC-A19BB2BD7091}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>projectTitle</t>
   </si>
@@ -33,45 +33,9 @@
     <t>projectBrief</t>
   </si>
   <si>
-    <t>stu1</t>
-  </si>
-  <si>
-    <t>stu2</t>
-  </si>
-  <si>
-    <t>stu3</t>
-  </si>
-  <si>
-    <t>stu4</t>
-  </si>
-  <si>
-    <t>stu5</t>
-  </si>
-  <si>
-    <t>stu6</t>
-  </si>
-  <si>
-    <t>stu7</t>
-  </si>
-  <si>
-    <t>stu8</t>
-  </si>
-  <si>
-    <t>stu9</t>
-  </si>
-  <si>
     <t>A system to help TAs to give feedback to students and lecturers to check the feedbacks</t>
   </si>
   <si>
-    <t>A project to optimize the Q-learning algorism used in Enforcement Learning</t>
-  </si>
-  <si>
-    <t>Medical reservation app</t>
-  </si>
-  <si>
-    <t>An application installed in mobile phone to help patients reserve medical service</t>
-  </si>
-  <si>
     <t>teamNumber</t>
   </si>
   <si>
@@ -87,16 +51,21 @@
     <t>TA</t>
   </si>
   <si>
-    <t>TA1</t>
-  </si>
-  <si>
-    <t>TA2</t>
-  </si>
-  <si>
     <t>Traffic Light System</t>
   </si>
   <si>
-    <t>Algorithm optimization</t>
+    <t>s202101</t>
+  </si>
+  <si>
+    <t>s202105</t>
+  </si>
+  <si>
+    <t>s202108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t123401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BCEA89-23F7-824F-BB32-37902BD3D2D4}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G5" sqref="D3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -506,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -515,16 +484,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -532,72 +501,72 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>